--- a/000-要件定義/ヒアリング内容.xlsx
+++ b/000-要件定義/ヒアリング内容.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\システム開発演習\000-要件定義\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121BBEFF-9E60-48C7-A7AD-D141E4E2A412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F7A309-9863-4121-8E06-7344B6DD6151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{12172D52-9081-4FBC-96A5-E550A04BF5AE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{12172D52-9081-4FBC-96A5-E550A04BF5AE}"/>
   </bookViews>
   <sheets>
     <sheet name="ヒアリング表01" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="4">ヒアリング表!$A$3:$BU$54</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'ヒアリング表 03'!$A$3:$BU$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'ヒアリング表 03'!$A$3:$BU$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ヒアリング表01!$A$3:$BU$53</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">ヒアリング表02!$A$3:$BU$52</definedName>
   </definedNames>
@@ -2189,23 +2189,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>テスト方針の確認</t>
-    <rPh sb="3" eb="5">
-      <t>ホウシン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>単体テスト</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>以下の方針で単体テストを行う</t>
     <rPh sb="0" eb="2">
       <t>イカ</t>
@@ -2258,13 +2241,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>　・カバレッジ率100％</t>
-    <rPh sb="7" eb="8">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -2312,19 +2288,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>要件定義書に則った画面表示がされているか</t>
-    <rPh sb="0" eb="5">
-      <t>ヨウケンテイギショ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ノット</t>
-    </rPh>
-    <rPh sb="9" eb="13">
-      <t>ガメンヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>　・すべての画面において正常な画面遷移が行えているか</t>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -2352,6 +2315,32 @@
       <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　・要件定義書に則った画面表示がされているか</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>　・カバレッジ率100％（100％にならない場合は理由を明記する）</t>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>メイキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>単体テスト</t>
+  </si>
+  <si>
+    <t>テスト方針の確認</t>
   </si>
 </sst>
 </file>
@@ -2404,7 +2393,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2691,17 +2680,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="dashDot">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="dashDot">
         <color indexed="64"/>
@@ -2718,7 +2696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2905,6 +2883,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2938,50 +2949,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3300,117 +3272,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C6953B1-38A3-4135-B771-0E9366EBC5D9}">
   <dimension ref="A1:BY53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="64" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="64" t="s">
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82"/>
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="82"/>
+      <c r="BD3" s="82"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="65"/>
+      <c r="BG3" s="82"/>
+      <c r="BH3" s="82"/>
+      <c r="BI3" s="82"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="82"/>
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
+      <c r="BR3" s="82"/>
+      <c r="BS3" s="82"/>
+      <c r="BT3" s="76"/>
       <c r="BU3" s="1"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
@@ -3418,82 +3390,82 @@
       <c r="BY3" s="1"/>
     </row>
     <row r="4" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="72"/>
-      <c r="BI4" s="72"/>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="72"/>
-      <c r="BM4" s="72"/>
-      <c r="BN4" s="72"/>
-      <c r="BO4" s="72"/>
-      <c r="BP4" s="72"/>
-      <c r="BQ4" s="72"/>
-      <c r="BR4" s="72"/>
-      <c r="BS4" s="72"/>
-      <c r="BT4" s="67"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="83"/>
+      <c r="BM4" s="83"/>
+      <c r="BN4" s="83"/>
+      <c r="BO4" s="83"/>
+      <c r="BP4" s="83"/>
+      <c r="BQ4" s="83"/>
+      <c r="BR4" s="83"/>
+      <c r="BS4" s="83"/>
+      <c r="BT4" s="78"/>
       <c r="BU4" s="1"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1"/>
@@ -3501,10 +3473,10 @@
       <c r="BY4" s="1"/>
     </row>
     <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="75">
+      <c r="A5" s="67">
         <v>1</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
@@ -3586,8 +3558,8 @@
       <c r="BY5" s="1"/>
     </row>
     <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="15"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -3667,10 +3639,10 @@
       <c r="BY6" s="1"/>
     </row>
     <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="79">
+      <c r="A7" s="71">
         <v>2</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="72"/>
       <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
@@ -3752,10 +3724,10 @@
       <c r="BY7" s="1"/>
     </row>
     <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="75">
+      <c r="A8" s="67">
         <v>3</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="13" t="s">
         <v>7</v>
       </c>
@@ -3837,8 +3809,8 @@
       <c r="BY8" s="1"/>
     </row>
     <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -3918,10 +3890,10 @@
       <c r="BY9" s="1"/>
     </row>
     <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="75">
+      <c r="A10" s="67">
         <v>4</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
@@ -4003,8 +3975,8 @@
       <c r="BY10" s="1"/>
     </row>
     <row r="11" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="13"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -4084,8 +4056,8 @@
       <c r="BY11" s="1"/>
     </row>
     <row r="12" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="13"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -4165,8 +4137,8 @@
       <c r="BY12" s="1"/>
     </row>
     <row r="13" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="13"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -4246,8 +4218,8 @@
       <c r="BY13" s="1"/>
     </row>
     <row r="14" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="13"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -4327,8 +4299,8 @@
       <c r="BY14" s="1"/>
     </row>
     <row r="15" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="15"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -4408,10 +4380,10 @@
       <c r="BY15" s="1"/>
     </row>
     <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="79">
+      <c r="A16" s="71">
         <v>5</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="17" t="s">
         <v>22</v>
       </c>
@@ -4493,10 +4465,10 @@
       <c r="BY16" s="1"/>
     </row>
     <row r="17" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="73">
+      <c r="A17" s="69">
         <v>6</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="12" t="s">
         <v>22</v>
       </c>
@@ -4578,8 +4550,8 @@
       <c r="BY17" s="1"/>
     </row>
     <row r="18" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="15"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
@@ -4659,10 +4631,10 @@
       <c r="BY18" s="1"/>
     </row>
     <row r="19" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="75">
+      <c r="A19" s="67">
         <v>7</v>
       </c>
-      <c r="B19" s="76"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="13" t="s">
         <v>22</v>
       </c>
@@ -4744,8 +4716,8 @@
       <c r="BY19" s="1"/>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="13"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -4825,8 +4797,8 @@
       <c r="BY20" s="1"/>
     </row>
     <row r="21" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="75"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -4985,8 +4957,8 @@
       <c r="BY22" s="1"/>
     </row>
     <row r="23" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -5065,8 +5037,8 @@
       <c r="BY23" s="1"/>
     </row>
     <row r="24" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="15"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
@@ -5146,10 +5118,10 @@
       <c r="BY24" s="1"/>
     </row>
     <row r="25" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="73">
+      <c r="A25" s="69">
         <v>8</v>
       </c>
-      <c r="B25" s="74"/>
+      <c r="B25" s="70"/>
       <c r="C25" s="12" t="s">
         <v>22</v>
       </c>
@@ -5231,8 +5203,8 @@
       <c r="BY25" s="1"/>
     </row>
     <row r="26" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="15"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
@@ -5312,10 +5284,10 @@
       <c r="BY26" s="1"/>
     </row>
     <row r="27" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="73">
+      <c r="A27" s="69">
         <v>9</v>
       </c>
-      <c r="B27" s="74"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="12" t="s">
         <v>27</v>
       </c>
@@ -5397,8 +5369,8 @@
       <c r="BY27" s="1"/>
     </row>
     <row r="28" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="15" t="s">
         <v>28</v>
       </c>
@@ -5478,10 +5450,10 @@
       <c r="BY28" s="1"/>
     </row>
     <row r="29" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="75">
+      <c r="A29" s="67">
         <v>10</v>
       </c>
-      <c r="B29" s="76"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="13" t="s">
         <v>29</v>
       </c>
@@ -5563,8 +5535,8 @@
       <c r="BY29" s="1"/>
     </row>
     <row r="30" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="13" t="s">
         <v>30</v>
       </c>
@@ -5646,8 +5618,8 @@
       <c r="BY30" s="1"/>
     </row>
     <row r="31" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="75"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="13" t="s">
         <v>31</v>
       </c>
@@ -5729,8 +5701,8 @@
       <c r="BY31" s="1"/>
     </row>
     <row r="32" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="75"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="13"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -5891,8 +5863,8 @@
       <c r="BY33" s="1"/>
     </row>
     <row r="34" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="15"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
@@ -5972,10 +5944,10 @@
       <c r="BY34" s="1"/>
     </row>
     <row r="35" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="73">
+      <c r="A35" s="69">
         <v>11</v>
       </c>
-      <c r="B35" s="74"/>
+      <c r="B35" s="70"/>
       <c r="C35" s="12" t="s">
         <v>37</v>
       </c>
@@ -6057,8 +6029,8 @@
       <c r="BY35" s="1"/>
     </row>
     <row r="36" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="75"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="13" t="s">
         <v>38</v>
       </c>
@@ -6140,8 +6112,8 @@
       <c r="BY36" s="1"/>
     </row>
     <row r="37" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="75"/>
-      <c r="B37" s="76"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="13" t="s">
         <v>39</v>
       </c>
@@ -6223,8 +6195,8 @@
       <c r="BY37" s="1"/>
     </row>
     <row r="38" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="77"/>
-      <c r="B38" s="78"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="15"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
@@ -6304,10 +6276,10 @@
       <c r="BY38" s="1"/>
     </row>
     <row r="39" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="75">
+      <c r="A39" s="67">
         <v>12</v>
       </c>
-      <c r="B39" s="76"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="13" t="s">
         <v>44</v>
       </c>
@@ -6389,8 +6361,8 @@
       <c r="BY39" s="1"/>
     </row>
     <row r="40" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="75"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="13" t="s">
         <v>45</v>
       </c>
@@ -6472,8 +6444,8 @@
       <c r="BY40" s="1"/>
     </row>
     <row r="41" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="13" t="s">
         <v>46</v>
       </c>
@@ -6555,8 +6527,8 @@
       <c r="BY41" s="1"/>
     </row>
     <row r="42" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="15"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -6636,10 +6608,10 @@
       <c r="BY42" s="1"/>
     </row>
     <row r="43" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="73">
+      <c r="A43" s="69">
         <v>13</v>
       </c>
-      <c r="B43" s="74"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="21" t="s">
         <v>48</v>
       </c>
@@ -6716,8 +6688,8 @@
       <c r="BT43" s="23"/>
     </row>
     <row r="44" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="6" t="s">
         <v>49</v>
       </c>
@@ -6794,8 +6766,8 @@
       <c r="BT44" s="28"/>
     </row>
     <row r="45" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="75"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="6" t="s">
         <v>50</v>
       </c>
@@ -6872,8 +6844,8 @@
       <c r="BT45" s="8"/>
     </row>
     <row r="46" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="77"/>
-      <c r="B46" s="78"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="9" t="s">
         <v>51</v>
       </c>
@@ -6950,10 +6922,10 @@
       <c r="BT46" s="11"/>
     </row>
     <row r="47" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="75">
+      <c r="A47" s="67">
         <v>14</v>
       </c>
-      <c r="B47" s="76"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="6" t="s">
         <v>56</v>
       </c>
@@ -7030,8 +7002,8 @@
       <c r="BT47" s="8"/>
     </row>
     <row r="48" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="75"/>
-      <c r="B48" s="76"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="6" t="s">
         <v>57</v>
       </c>
@@ -7108,8 +7080,8 @@
       <c r="BT48" s="28"/>
     </row>
     <row r="49" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="77"/>
-      <c r="B49" s="78"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="9"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
@@ -7184,10 +7156,10 @@
       <c r="BT49" s="11"/>
     </row>
     <row r="50" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="75">
+      <c r="A50" s="67">
         <v>15</v>
       </c>
-      <c r="B50" s="76"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="6" t="s">
         <v>61</v>
       </c>
@@ -7264,8 +7236,8 @@
       <c r="BT50" s="42"/>
     </row>
     <row r="51" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="75"/>
-      <c r="B51" s="76"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="6" t="s">
         <v>62</v>
       </c>
@@ -7342,8 +7314,8 @@
       <c r="BT51" s="8"/>
     </row>
     <row r="52" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="75"/>
-      <c r="B52" s="76"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -7418,8 +7390,8 @@
       <c r="BT52" s="28"/>
     </row>
     <row r="53" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="77"/>
-      <c r="B53" s="78"/>
+      <c r="A53" s="65"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
@@ -7495,40 +7467,13 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:AF3"/>
+    <mergeCell ref="AG3:BE4"/>
+    <mergeCell ref="BF3:BT4"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M4:AF4"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A5:B5"/>
@@ -7542,13 +7487,40 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:AF3"/>
-    <mergeCell ref="AG3:BE4"/>
-    <mergeCell ref="BF3:BT4"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="M4:AF4"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7565,112 +7537,112 @@
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="64" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="64" t="s">
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82"/>
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="82"/>
+      <c r="BD3" s="82"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="65"/>
+      <c r="BG3" s="82"/>
+      <c r="BH3" s="82"/>
+      <c r="BI3" s="82"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="82"/>
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
+      <c r="BR3" s="82"/>
+      <c r="BS3" s="82"/>
+      <c r="BT3" s="76"/>
       <c r="BU3" s="1"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
@@ -7678,82 +7650,82 @@
       <c r="BY3" s="1"/>
     </row>
     <row r="4" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="72"/>
-      <c r="BI4" s="72"/>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="72"/>
-      <c r="BM4" s="72"/>
-      <c r="BN4" s="72"/>
-      <c r="BO4" s="72"/>
-      <c r="BP4" s="72"/>
-      <c r="BQ4" s="72"/>
-      <c r="BR4" s="72"/>
-      <c r="BS4" s="72"/>
-      <c r="BT4" s="67"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="83"/>
+      <c r="BM4" s="83"/>
+      <c r="BN4" s="83"/>
+      <c r="BO4" s="83"/>
+      <c r="BP4" s="83"/>
+      <c r="BQ4" s="83"/>
+      <c r="BR4" s="83"/>
+      <c r="BS4" s="83"/>
+      <c r="BT4" s="78"/>
       <c r="BU4" s="1"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1"/>
@@ -7761,10 +7733,10 @@
       <c r="BY4" s="1"/>
     </row>
     <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="75">
+      <c r="A5" s="67">
         <v>16</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="12" t="s">
         <v>66</v>
       </c>
@@ -7846,8 +7818,8 @@
       <c r="BY5" s="1"/>
     </row>
     <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="13" t="s">
         <v>67</v>
       </c>
@@ -7929,8 +7901,8 @@
       <c r="BY6" s="1"/>
     </row>
     <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="13" t="s">
         <v>68</v>
       </c>
@@ -8012,8 +7984,8 @@
       <c r="BY7" s="1"/>
     </row>
     <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="81"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="13" t="s">
         <v>200</v>
       </c>
@@ -8095,8 +8067,8 @@
       <c r="BY8" s="1"/>
     </row>
     <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="63"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="15"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -8176,10 +8148,10 @@
       <c r="BY9" s="1"/>
     </row>
     <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="75">
+      <c r="A10" s="67">
         <v>17</v>
       </c>
-      <c r="B10" s="76"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="13" t="s">
         <v>76</v>
       </c>
@@ -8261,8 +8233,8 @@
       <c r="BY10" s="1"/>
     </row>
     <row r="11" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="13" t="s">
         <v>77</v>
       </c>
@@ -8344,8 +8316,8 @@
       <c r="BY11" s="1"/>
     </row>
     <row r="12" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="13" t="s">
         <v>78</v>
       </c>
@@ -8427,8 +8399,8 @@
       <c r="BY12" s="1"/>
     </row>
     <row r="13" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="13"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -8508,8 +8480,8 @@
       <c r="BY13" s="1"/>
     </row>
     <row r="14" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="13"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -8589,8 +8561,8 @@
       <c r="BY14" s="1"/>
     </row>
     <row r="15" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="13"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -8670,8 +8642,8 @@
       <c r="BY15" s="1"/>
     </row>
     <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="15"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -8751,10 +8723,10 @@
       <c r="BY16" s="1"/>
     </row>
     <row r="17" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="75">
+      <c r="A17" s="67">
         <v>18</v>
       </c>
-      <c r="B17" s="76"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="13" t="s">
         <v>84</v>
       </c>
@@ -8836,8 +8808,8 @@
       <c r="BY17" s="1"/>
     </row>
     <row r="18" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="13" t="s">
         <v>85</v>
       </c>
@@ -8919,8 +8891,8 @@
       <c r="BY18" s="1"/>
     </row>
     <row r="19" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="13" t="s">
         <v>86</v>
       </c>
@@ -9002,8 +8974,8 @@
       <c r="BY19" s="1"/>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="13"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -9083,8 +9055,8 @@
       <c r="BY20" s="1"/>
     </row>
     <row r="21" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="15"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -9164,10 +9136,10 @@
       <c r="BY21" s="1"/>
     </row>
     <row r="22" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="75">
+      <c r="A22" s="67">
         <v>19</v>
       </c>
-      <c r="B22" s="76"/>
+      <c r="B22" s="68"/>
       <c r="C22" s="44" t="s">
         <v>88</v>
       </c>
@@ -9249,8 +9221,8 @@
       <c r="BY22" s="1"/>
     </row>
     <row r="23" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="44" t="s">
         <v>89</v>
       </c>
@@ -9332,8 +9304,8 @@
       <c r="BY23" s="1"/>
     </row>
     <row r="24" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="68"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -9412,8 +9384,8 @@
       <c r="BY24" s="1"/>
     </row>
     <row r="25" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -9492,8 +9464,8 @@
       <c r="BY25" s="1"/>
     </row>
     <row r="26" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="75"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="13"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -9573,8 +9545,8 @@
       <c r="BY26" s="1"/>
     </row>
     <row r="27" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="75"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="13"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -9654,8 +9626,8 @@
       <c r="BY27" s="1"/>
     </row>
     <row r="28" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="13"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -9735,8 +9707,8 @@
       <c r="BY28" s="1"/>
     </row>
     <row r="29" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="75"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="13"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -9816,8 +9788,8 @@
       <c r="BY29" s="1"/>
     </row>
     <row r="30" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="13"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -9897,8 +9869,8 @@
       <c r="BY30" s="1"/>
     </row>
     <row r="31" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="75"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="13"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -9978,8 +9950,8 @@
       <c r="BY31" s="1"/>
     </row>
     <row r="32" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="75"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="13"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -10059,8 +10031,8 @@
       <c r="BY32" s="1"/>
     </row>
     <row r="33" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="75"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="13"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -10221,8 +10193,8 @@
       <c r="BY34" s="1"/>
     </row>
     <row r="35" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="15"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -10302,10 +10274,10 @@
       <c r="BY35" s="1"/>
     </row>
     <row r="36" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="75">
+      <c r="A36" s="67">
         <v>20</v>
       </c>
-      <c r="B36" s="76"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="13" t="s">
         <v>98</v>
       </c>
@@ -10387,8 +10359,8 @@
       <c r="BY36" s="1"/>
     </row>
     <row r="37" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="75"/>
-      <c r="B37" s="76"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="13" t="s">
         <v>99</v>
       </c>
@@ -10470,8 +10442,8 @@
       <c r="BY37" s="1"/>
     </row>
     <row r="38" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="75"/>
-      <c r="B38" s="76"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="13" t="s">
         <v>100</v>
       </c>
@@ -10553,8 +10525,8 @@
       <c r="BY38" s="1"/>
     </row>
     <row r="39" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="75"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="13"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -10634,8 +10606,8 @@
       <c r="BY39" s="1"/>
     </row>
     <row r="40" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="75"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="13"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -10715,8 +10687,8 @@
       <c r="BY40" s="1"/>
     </row>
     <row r="41" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="13"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -10796,8 +10768,8 @@
       <c r="BY41" s="1"/>
     </row>
     <row r="42" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -10872,10 +10844,10 @@
       <c r="BT42" s="11"/>
     </row>
     <row r="43" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="75">
+      <c r="A43" s="67">
         <v>21</v>
       </c>
-      <c r="B43" s="76"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="6" t="s">
         <v>108</v>
       </c>
@@ -10952,8 +10924,8 @@
       <c r="BT43" s="8"/>
     </row>
     <row r="44" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="6" t="s">
         <v>109</v>
       </c>
@@ -11030,8 +11002,8 @@
       <c r="BT44" s="28"/>
     </row>
     <row r="45" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="75"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -11106,8 +11078,8 @@
       <c r="BT45" s="8"/>
     </row>
     <row r="46" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="75"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -11182,8 +11154,8 @@
       <c r="BT46" s="28"/>
     </row>
     <row r="47" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="75"/>
-      <c r="B47" s="76"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -11258,8 +11230,8 @@
       <c r="BT47" s="50"/>
     </row>
     <row r="48" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="77"/>
-      <c r="B48" s="78"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="9"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
@@ -11334,10 +11306,10 @@
       <c r="BT48" s="11"/>
     </row>
     <row r="49" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="75">
+      <c r="A49" s="67">
         <v>22</v>
       </c>
-      <c r="B49" s="76"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="6" t="s">
         <v>113</v>
       </c>
@@ -11414,8 +11386,8 @@
       <c r="BT49" s="8"/>
     </row>
     <row r="50" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="75"/>
-      <c r="B50" s="76"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="6" t="s">
         <v>114</v>
       </c>
@@ -11492,8 +11464,8 @@
       <c r="BT50" s="8"/>
     </row>
     <row r="51" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="75"/>
-      <c r="B51" s="76"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="6" t="s">
         <v>115</v>
       </c>
@@ -11570,8 +11542,8 @@
       <c r="BT51" s="28"/>
     </row>
     <row r="52" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="77"/>
-      <c r="B52" s="78"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="66"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
@@ -11647,20 +11619,28 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
     <mergeCell ref="A52:B52"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="AG3:BE4"/>
@@ -11677,30 +11657,22 @@
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C3:AF3"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11710,11 +11682,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31B2202-A7B9-4515-B292-46852414D80F}">
-  <dimension ref="A1:BY60"/>
+  <dimension ref="A1:BY61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
@@ -11722,112 +11692,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="64" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="64" t="s">
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82"/>
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="82"/>
+      <c r="BD3" s="82"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="65"/>
+      <c r="BG3" s="82"/>
+      <c r="BH3" s="82"/>
+      <c r="BI3" s="82"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="82"/>
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
+      <c r="BR3" s="82"/>
+      <c r="BS3" s="82"/>
+      <c r="BT3" s="76"/>
       <c r="BU3" s="1"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
@@ -11835,82 +11805,82 @@
       <c r="BY3" s="1"/>
     </row>
     <row r="4" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="72"/>
-      <c r="BI4" s="72"/>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="72"/>
-      <c r="BM4" s="72"/>
-      <c r="BN4" s="72"/>
-      <c r="BO4" s="72"/>
-      <c r="BP4" s="72"/>
-      <c r="BQ4" s="72"/>
-      <c r="BR4" s="72"/>
-      <c r="BS4" s="72"/>
-      <c r="BT4" s="67"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="83"/>
+      <c r="BM4" s="83"/>
+      <c r="BN4" s="83"/>
+      <c r="BO4" s="83"/>
+      <c r="BP4" s="83"/>
+      <c r="BQ4" s="83"/>
+      <c r="BR4" s="83"/>
+      <c r="BS4" s="83"/>
+      <c r="BT4" s="78"/>
       <c r="BU4" s="1"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1"/>
@@ -11918,10 +11888,10 @@
       <c r="BY4" s="1"/>
     </row>
     <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="75">
+      <c r="A5" s="67">
         <v>23</v>
       </c>
-      <c r="B5" s="76"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="12" t="s">
         <v>120</v>
       </c>
@@ -12003,8 +11973,8 @@
       <c r="BY5" s="1"/>
     </row>
     <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="13" t="s">
         <v>121</v>
       </c>
@@ -12086,8 +12056,8 @@
       <c r="BY6" s="1"/>
     </row>
     <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="13" t="s">
         <v>122</v>
       </c>
@@ -12169,8 +12139,8 @@
       <c r="BY7" s="1"/>
     </row>
     <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="81"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="13" t="s">
         <v>123</v>
       </c>
@@ -12252,8 +12222,8 @@
       <c r="BY8" s="1"/>
     </row>
     <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="81"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="13" t="s">
         <v>124</v>
       </c>
@@ -12335,8 +12305,8 @@
       <c r="BY9" s="1"/>
     </row>
     <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="13" t="s">
         <v>125</v>
       </c>
@@ -12418,8 +12388,8 @@
       <c r="BY10" s="1"/>
     </row>
     <row r="11" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="13" t="s">
         <v>126</v>
       </c>
@@ -12499,8 +12469,8 @@
       <c r="BY11" s="1"/>
     </row>
     <row r="12" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="13" t="s">
         <v>127</v>
       </c>
@@ -12580,8 +12550,8 @@
       <c r="BY12" s="1"/>
     </row>
     <row r="13" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="15" t="s">
         <v>128</v>
       </c>
@@ -12661,10 +12631,10 @@
       <c r="BY13" s="1"/>
     </row>
     <row r="14" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="75">
+      <c r="A14" s="67">
         <v>24</v>
       </c>
-      <c r="B14" s="76"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="13" t="s">
         <v>136</v>
       </c>
@@ -12746,8 +12716,8 @@
       <c r="BY14" s="1"/>
     </row>
     <row r="15" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="13" t="s">
         <v>137</v>
       </c>
@@ -12829,8 +12799,8 @@
       <c r="BY15" s="1"/>
     </row>
     <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="15" t="s">
         <v>138</v>
       </c>
@@ -12912,10 +12882,10 @@
       <c r="BY16" s="1"/>
     </row>
     <row r="17" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="75">
+      <c r="A17" s="67">
         <v>25</v>
       </c>
-      <c r="B17" s="76"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="13" t="s">
         <v>139</v>
       </c>
@@ -12997,8 +12967,8 @@
       <c r="BY17" s="1"/>
     </row>
     <row r="18" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="13" t="s">
         <v>140</v>
       </c>
@@ -13080,8 +13050,8 @@
       <c r="BY18" s="1"/>
     </row>
     <row r="19" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="15" t="s">
         <v>138</v>
       </c>
@@ -13163,10 +13133,10 @@
       <c r="BY19" s="1"/>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="75">
+      <c r="A20" s="67">
         <v>26</v>
       </c>
-      <c r="B20" s="76"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="13" t="s">
         <v>141</v>
       </c>
@@ -13248,8 +13218,8 @@
       <c r="BY20" s="1"/>
     </row>
     <row r="21" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="75"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="13" t="s">
         <v>142</v>
       </c>
@@ -13331,8 +13301,8 @@
       <c r="BY21" s="1"/>
     </row>
     <row r="22" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="52" t="s">
         <v>143</v>
       </c>
@@ -13414,10 +13384,10 @@
       <c r="BY22" s="1"/>
     </row>
     <row r="23" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="75">
+      <c r="A23" s="67">
         <v>27</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="68"/>
       <c r="C23" s="44" t="s">
         <v>146</v>
       </c>
@@ -13499,8 +13469,8 @@
       <c r="BY23" s="1"/>
     </row>
     <row r="24" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="68"/>
       <c r="C24" s="44" t="s">
         <v>147</v>
       </c>
@@ -13582,8 +13552,8 @@
       <c r="BY24" s="1"/>
     </row>
     <row r="25" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
       <c r="C25" s="44" t="s">
         <v>148</v>
       </c>
@@ -13665,8 +13635,8 @@
       <c r="BY25" s="1"/>
     </row>
     <row r="26" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="15" t="s">
         <v>149</v>
       </c>
@@ -13748,10 +13718,10 @@
       <c r="BY26" s="1"/>
     </row>
     <row r="27" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="75">
+      <c r="A27" s="67">
         <v>28</v>
       </c>
-      <c r="B27" s="76"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="13" t="s">
         <v>152</v>
       </c>
@@ -13833,8 +13803,8 @@
       <c r="BY27" s="1"/>
     </row>
     <row r="28" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="15" t="s">
         <v>153</v>
       </c>
@@ -13916,10 +13886,10 @@
       <c r="BY28" s="1"/>
     </row>
     <row r="29" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="79">
+      <c r="A29" s="71">
         <v>29</v>
       </c>
-      <c r="B29" s="80"/>
+      <c r="B29" s="72"/>
       <c r="C29" s="17" t="s">
         <v>22</v>
       </c>
@@ -14001,10 +13971,10 @@
       <c r="BY29" s="1"/>
     </row>
     <row r="30" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="77">
+      <c r="A30" s="65">
         <v>30</v>
       </c>
-      <c r="B30" s="78"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="15" t="s">
         <v>22</v>
       </c>
@@ -14086,10 +14056,10 @@
       <c r="BY30" s="1"/>
     </row>
     <row r="31" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="77">
+      <c r="A31" s="65">
         <v>31</v>
       </c>
-      <c r="B31" s="78"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="15" t="s">
         <v>22</v>
       </c>
@@ -14171,10 +14141,10 @@
       <c r="BY31" s="1"/>
     </row>
     <row r="32" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="77">
+      <c r="A32" s="65">
         <v>32</v>
       </c>
-      <c r="B32" s="78"/>
+      <c r="B32" s="66"/>
       <c r="C32" s="15" t="s">
         <v>22</v>
       </c>
@@ -14256,10 +14226,10 @@
       <c r="BY32" s="1"/>
     </row>
     <row r="33" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="75">
+      <c r="A33" s="67">
         <v>33</v>
       </c>
-      <c r="B33" s="76"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="13" t="s">
         <v>189</v>
       </c>
@@ -14341,8 +14311,8 @@
       <c r="BY33" s="1"/>
     </row>
     <row r="34" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="75"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="13"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -14422,8 +14392,8 @@
       <c r="BY34" s="1"/>
     </row>
     <row r="35" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="75"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="13"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -14503,8 +14473,8 @@
       <c r="BY35" s="1"/>
     </row>
     <row r="36" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="75"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="13"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -14584,8 +14554,8 @@
       <c r="BY36" s="1"/>
     </row>
     <row r="37" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="15"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -14665,10 +14635,10 @@
       <c r="BY37" s="1"/>
     </row>
     <row r="38" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="75">
+      <c r="A38" s="67">
         <v>34</v>
       </c>
-      <c r="B38" s="76"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="13" t="s">
         <v>201</v>
       </c>
@@ -14750,8 +14720,8 @@
       <c r="BY38" s="1"/>
     </row>
     <row r="39" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="75"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="13" t="s">
         <v>202</v>
       </c>
@@ -14833,8 +14803,8 @@
       <c r="BY39" s="1"/>
     </row>
     <row r="40" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="75"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="13"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -14914,8 +14884,8 @@
       <c r="BY40" s="1"/>
     </row>
     <row r="41" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="13"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -14995,8 +14965,8 @@
       <c r="BY41" s="1"/>
     </row>
     <row r="42" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="15"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
@@ -15076,10 +15046,10 @@
       <c r="BY42" s="1"/>
     </row>
     <row r="43" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="73">
+      <c r="A43" s="69">
         <v>35</v>
       </c>
-      <c r="B43" s="74"/>
+      <c r="B43" s="70"/>
       <c r="C43" s="12" t="s">
         <v>215</v>
       </c>
@@ -15161,8 +15131,8 @@
       <c r="BY43" s="1"/>
     </row>
     <row r="44" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="77"/>
-      <c r="B44" s="78"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
@@ -15237,12 +15207,12 @@
       <c r="BT44" s="11"/>
     </row>
     <row r="45" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="75">
+      <c r="A45" s="67">
         <v>36</v>
       </c>
-      <c r="B45" s="76"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="6" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -15253,7 +15223,9 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="13"/>
+      <c r="M45" s="13" t="s">
+        <v>220</v>
+      </c>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
       <c r="P45" s="7"/>
@@ -15315,10 +15287,10 @@
       <c r="BT45" s="8"/>
     </row>
     <row r="46" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="75"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="6" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -15329,8 +15301,8 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="13" t="s">
-        <v>222</v>
+      <c r="M46" s="44" t="s">
+        <v>221</v>
       </c>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
@@ -15393,8 +15365,8 @@
       <c r="BT46" s="8"/>
     </row>
     <row r="47" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="75"/>
-      <c r="B47" s="76"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -15405,8 +15377,8 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="44" t="s">
-        <v>223</v>
+      <c r="M47" s="20" t="s">
+        <v>222</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
@@ -15469,8 +15441,8 @@
       <c r="BT47" s="8"/>
     </row>
     <row r="48" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="75"/>
-      <c r="B48" s="76"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -15481,8 +15453,8 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="8"/>
-      <c r="M48" s="20" t="s">
-        <v>224</v>
+      <c r="M48" s="44" t="s">
+        <v>223</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -15545,163 +15517,163 @@
       <c r="BT48" s="8"/>
     </row>
     <row r="49" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="75"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="44" t="s">
+      <c r="A49" s="67"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="27"/>
+      <c r="AI49" s="27"/>
+      <c r="AJ49" s="27"/>
+      <c r="AK49" s="27"/>
+      <c r="AL49" s="27"/>
+      <c r="AM49" s="27"/>
+      <c r="AN49" s="27"/>
+      <c r="AO49" s="27"/>
+      <c r="AP49" s="27"/>
+      <c r="AQ49" s="27"/>
+      <c r="AR49" s="27"/>
+      <c r="AS49" s="27"/>
+      <c r="AT49" s="27"/>
+      <c r="AU49" s="27"/>
+      <c r="AV49" s="27"/>
+      <c r="AW49" s="27"/>
+      <c r="AX49" s="27"/>
+      <c r="AY49" s="27"/>
+      <c r="AZ49" s="27"/>
+      <c r="BA49" s="27"/>
+      <c r="BB49" s="27"/>
+      <c r="BC49" s="27"/>
+      <c r="BD49" s="27"/>
+      <c r="BE49" s="28"/>
+      <c r="BF49" s="27"/>
+      <c r="BG49" s="27"/>
+      <c r="BH49" s="27"/>
+      <c r="BI49" s="27"/>
+      <c r="BJ49" s="27"/>
+      <c r="BK49" s="27"/>
+      <c r="BL49" s="27"/>
+      <c r="BM49" s="27"/>
+      <c r="BN49" s="27"/>
+      <c r="BO49" s="27"/>
+      <c r="BP49" s="27"/>
+      <c r="BQ49" s="27"/>
+      <c r="BR49" s="27"/>
+      <c r="BS49" s="27"/>
+      <c r="BT49" s="28"/>
+    </row>
+    <row r="50" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="44" t="s">
         <v>225</v>
       </c>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
-      <c r="X49" s="7"/>
-      <c r="Y49" s="7"/>
-      <c r="Z49" s="7"/>
-      <c r="AA49" s="7"/>
-      <c r="AB49" s="7"/>
-      <c r="AC49" s="7"/>
-      <c r="AD49" s="7"/>
-      <c r="AE49" s="7"/>
-      <c r="AF49" s="8"/>
-      <c r="AG49" s="6"/>
-      <c r="AH49" s="7"/>
-      <c r="AI49" s="7"/>
-      <c r="AJ49" s="7"/>
-      <c r="AK49" s="7"/>
-      <c r="AL49" s="7"/>
-      <c r="AM49" s="7"/>
-      <c r="AN49" s="7"/>
-      <c r="AO49" s="7"/>
-      <c r="AP49" s="7"/>
-      <c r="AQ49" s="7"/>
-      <c r="AR49" s="7"/>
-      <c r="AS49" s="7"/>
-      <c r="AT49" s="7"/>
-      <c r="AU49" s="7"/>
-      <c r="AV49" s="7"/>
-      <c r="AW49" s="7"/>
-      <c r="AX49" s="7"/>
-      <c r="AY49" s="7"/>
-      <c r="AZ49" s="7"/>
-      <c r="BA49" s="7"/>
-      <c r="BB49" s="7"/>
-      <c r="BC49" s="7"/>
-      <c r="BD49" s="7"/>
-      <c r="BE49" s="8"/>
-      <c r="BF49" s="7"/>
-      <c r="BG49" s="7"/>
-      <c r="BH49" s="7"/>
-      <c r="BI49" s="7"/>
-      <c r="BJ49" s="7"/>
-      <c r="BK49" s="7"/>
-      <c r="BL49" s="7"/>
-      <c r="BM49" s="7"/>
-      <c r="BN49" s="7"/>
-      <c r="BO49" s="7"/>
-      <c r="BP49" s="7"/>
-      <c r="BQ49" s="7"/>
-      <c r="BR49" s="7"/>
-      <c r="BS49" s="7"/>
-      <c r="BT49" s="8"/>
-    </row>
-    <row r="50" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="75"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="61" t="s">
-        <v>226</v>
-      </c>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
-      <c r="V50" s="27"/>
-      <c r="W50" s="27"/>
-      <c r="X50" s="27"/>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-      <c r="AF50" s="28"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="27"/>
-      <c r="AI50" s="27"/>
-      <c r="AJ50" s="27"/>
-      <c r="AK50" s="27"/>
-      <c r="AL50" s="27"/>
-      <c r="AM50" s="27"/>
-      <c r="AN50" s="27"/>
-      <c r="AO50" s="27"/>
-      <c r="AP50" s="27"/>
-      <c r="AQ50" s="27"/>
-      <c r="AR50" s="27"/>
-      <c r="AS50" s="27"/>
-      <c r="AT50" s="27"/>
-      <c r="AU50" s="27"/>
-      <c r="AV50" s="27"/>
-      <c r="AW50" s="27"/>
-      <c r="AX50" s="27"/>
-      <c r="AY50" s="27"/>
-      <c r="AZ50" s="27"/>
-      <c r="BA50" s="27"/>
-      <c r="BB50" s="27"/>
-      <c r="BC50" s="27"/>
-      <c r="BD50" s="27"/>
-      <c r="BE50" s="28"/>
-      <c r="BF50" s="27"/>
-      <c r="BG50" s="27"/>
-      <c r="BH50" s="27"/>
-      <c r="BI50" s="27"/>
-      <c r="BJ50" s="27"/>
-      <c r="BK50" s="27"/>
-      <c r="BL50" s="27"/>
-      <c r="BM50" s="27"/>
-      <c r="BN50" s="27"/>
-      <c r="BO50" s="27"/>
-      <c r="BP50" s="27"/>
-      <c r="BQ50" s="27"/>
-      <c r="BR50" s="27"/>
-      <c r="BS50" s="27"/>
-      <c r="BT50" s="28"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="6"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+      <c r="AW50" s="7"/>
+      <c r="AX50" s="7"/>
+      <c r="AY50" s="7"/>
+      <c r="AZ50" s="7"/>
+      <c r="BA50" s="7"/>
+      <c r="BB50" s="7"/>
+      <c r="BC50" s="7"/>
+      <c r="BD50" s="7"/>
+      <c r="BE50" s="8"/>
+      <c r="BF50" s="7"/>
+      <c r="BG50" s="7"/>
+      <c r="BH50" s="7"/>
+      <c r="BI50" s="7"/>
+      <c r="BJ50" s="7"/>
+      <c r="BK50" s="7"/>
+      <c r="BL50" s="7"/>
+      <c r="BM50" s="7"/>
+      <c r="BN50" s="7"/>
+      <c r="BO50" s="7"/>
+      <c r="BP50" s="7"/>
+      <c r="BQ50" s="7"/>
+      <c r="BR50" s="7"/>
+      <c r="BS50" s="7"/>
+      <c r="BT50" s="8"/>
     </row>
     <row r="51" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="75"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="6" t="s">
-        <v>227</v>
-      </c>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
@@ -15711,8 +15683,8 @@
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="44" t="s">
-        <v>228</v>
+      <c r="M51" s="20" t="s">
+        <v>229</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="7"/>
@@ -15775,8 +15747,8 @@
       <c r="BT51" s="8"/>
     </row>
     <row r="52" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="75"/>
-      <c r="B52" s="76"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -15787,8 +15759,8 @@
       <c r="J52" s="7"/>
       <c r="K52" s="7"/>
       <c r="L52" s="8"/>
-      <c r="M52" s="20" t="s">
-        <v>233</v>
+      <c r="M52" s="44" t="s">
+        <v>226</v>
       </c>
       <c r="N52" s="7"/>
       <c r="O52" s="7"/>
@@ -15851,20 +15823,10 @@
       <c r="BT52" s="8"/>
     </row>
     <row r="53" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="75"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="26" t="s">
-        <v>229</v>
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
+      <c r="M53" s="29" t="s">
+        <v>231</v>
       </c>
       <c r="N53" s="27"/>
       <c r="O53" s="27"/>
@@ -15909,8 +15871,8 @@
       <c r="BB53" s="27"/>
       <c r="BC53" s="27"/>
       <c r="BD53" s="27"/>
-      <c r="BE53" s="28"/>
-      <c r="BF53" s="27"/>
+      <c r="BE53" s="27"/>
+      <c r="BF53" s="29"/>
       <c r="BG53" s="27"/>
       <c r="BH53" s="27"/>
       <c r="BI53" s="27"/>
@@ -15927,364 +15889,248 @@
       <c r="BT53" s="28"/>
     </row>
     <row r="54" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="75"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="83" t="s">
+      <c r="A54" s="67"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="64" t="s">
+        <v>228</v>
+      </c>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+      <c r="AP54" s="7"/>
+      <c r="AQ54" s="7"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+      <c r="AT54" s="7"/>
+      <c r="AU54" s="7"/>
+      <c r="AV54" s="7"/>
+      <c r="AW54" s="7"/>
+      <c r="AX54" s="7"/>
+      <c r="AY54" s="7"/>
+      <c r="AZ54" s="7"/>
+      <c r="BA54" s="7"/>
+      <c r="BB54" s="7"/>
+      <c r="BC54" s="7"/>
+      <c r="BD54" s="7"/>
+      <c r="BE54" s="7"/>
+      <c r="BF54" s="6"/>
+      <c r="BG54" s="7"/>
+      <c r="BH54" s="7"/>
+      <c r="BI54" s="7"/>
+      <c r="BJ54" s="7"/>
+      <c r="BK54" s="7"/>
+      <c r="BL54" s="7"/>
+      <c r="BM54" s="7"/>
+      <c r="BN54" s="7"/>
+      <c r="BO54" s="7"/>
+      <c r="BP54" s="7"/>
+      <c r="BQ54" s="7"/>
+      <c r="BR54" s="7"/>
+      <c r="BS54" s="7"/>
+      <c r="BT54" s="8"/>
+    </row>
+    <row r="55" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="65"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="60" t="s">
         <v>230</v>
       </c>
-      <c r="D54" s="84"/>
-      <c r="E54" s="84"/>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="85" t="s">
-        <v>231</v>
-      </c>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="84"/>
-      <c r="W54" s="84"/>
-      <c r="X54" s="84"/>
-      <c r="Y54" s="84"/>
-      <c r="Z54" s="84"/>
-      <c r="AA54" s="84"/>
-      <c r="AB54" s="84"/>
-      <c r="AC54" s="84"/>
-      <c r="AD54" s="84"/>
-      <c r="AE54" s="84"/>
-      <c r="AF54" s="84"/>
-      <c r="AG54" s="83"/>
-      <c r="AH54" s="84"/>
-      <c r="AI54" s="84"/>
-      <c r="AJ54" s="84"/>
-      <c r="AK54" s="84"/>
-      <c r="AL54" s="84"/>
-      <c r="AM54" s="84"/>
-      <c r="AN54" s="84"/>
-      <c r="AO54" s="84"/>
-      <c r="AP54" s="84"/>
-      <c r="AQ54" s="84"/>
-      <c r="AR54" s="84"/>
-      <c r="AS54" s="84"/>
-      <c r="AT54" s="84"/>
-      <c r="AU54" s="84"/>
-      <c r="AV54" s="84"/>
-      <c r="AW54" s="84"/>
-      <c r="AX54" s="84"/>
-      <c r="AY54" s="84"/>
-      <c r="AZ54" s="84"/>
-      <c r="BA54" s="84"/>
-      <c r="BB54" s="84"/>
-      <c r="BC54" s="84"/>
-      <c r="BD54" s="84"/>
-      <c r="BE54" s="84"/>
-      <c r="BF54" s="83"/>
-      <c r="BG54" s="84"/>
-      <c r="BH54" s="84"/>
-      <c r="BI54" s="84"/>
-      <c r="BJ54" s="84"/>
-      <c r="BK54" s="84"/>
-      <c r="BL54" s="84"/>
-      <c r="BM54" s="84"/>
-      <c r="BN54" s="84"/>
-      <c r="BO54" s="84"/>
-      <c r="BP54" s="84"/>
-      <c r="BQ54" s="84"/>
-      <c r="BR54" s="84"/>
-      <c r="BS54" s="84"/>
-      <c r="BT54" s="86"/>
-    </row>
-    <row r="55" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="75"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="87" t="s">
-        <v>234</v>
-      </c>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
-      <c r="X55" s="7"/>
-      <c r="Y55" s="7"/>
-      <c r="Z55" s="7"/>
-      <c r="AA55" s="7"/>
-      <c r="AB55" s="7"/>
-      <c r="AC55" s="7"/>
-      <c r="AD55" s="7"/>
-      <c r="AE55" s="7"/>
-      <c r="AF55" s="7"/>
-      <c r="AG55" s="6"/>
-      <c r="AH55" s="7"/>
-      <c r="AI55" s="7"/>
-      <c r="AJ55" s="7"/>
-      <c r="AK55" s="7"/>
-      <c r="AL55" s="7"/>
-      <c r="AM55" s="7"/>
-      <c r="AN55" s="7"/>
-      <c r="AO55" s="7"/>
-      <c r="AP55" s="7"/>
-      <c r="AQ55" s="7"/>
-      <c r="AR55" s="7"/>
-      <c r="AS55" s="7"/>
-      <c r="AT55" s="7"/>
-      <c r="AU55" s="7"/>
-      <c r="AV55" s="7"/>
-      <c r="AW55" s="7"/>
-      <c r="AX55" s="7"/>
-      <c r="AY55" s="7"/>
-      <c r="AZ55" s="7"/>
-      <c r="BA55" s="7"/>
-      <c r="BB55" s="7"/>
-      <c r="BC55" s="7"/>
-      <c r="BD55" s="7"/>
-      <c r="BE55" s="7"/>
-      <c r="BF55" s="6"/>
-      <c r="BG55" s="7"/>
-      <c r="BH55" s="7"/>
-      <c r="BI55" s="7"/>
-      <c r="BJ55" s="7"/>
-      <c r="BK55" s="7"/>
-      <c r="BL55" s="7"/>
-      <c r="BM55" s="7"/>
-      <c r="BN55" s="7"/>
-      <c r="BO55" s="7"/>
-      <c r="BP55" s="7"/>
-      <c r="BQ55" s="7"/>
-      <c r="BR55" s="7"/>
-      <c r="BS55" s="7"/>
-      <c r="BT55" s="8"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="9"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="10"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="10"/>
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="10"/>
+      <c r="AO55" s="10"/>
+      <c r="AP55" s="10"/>
+      <c r="AQ55" s="10"/>
+      <c r="AR55" s="10"/>
+      <c r="AS55" s="10"/>
+      <c r="AT55" s="10"/>
+      <c r="AU55" s="10"/>
+      <c r="AV55" s="10"/>
+      <c r="AW55" s="10"/>
+      <c r="AX55" s="10"/>
+      <c r="AY55" s="10"/>
+      <c r="AZ55" s="10"/>
+      <c r="BA55" s="10"/>
+      <c r="BB55" s="10"/>
+      <c r="BC55" s="10"/>
+      <c r="BD55" s="10"/>
+      <c r="BE55" s="10"/>
+      <c r="BF55" s="9"/>
+      <c r="BG55" s="10"/>
+      <c r="BH55" s="10"/>
+      <c r="BI55" s="10"/>
+      <c r="BJ55" s="10"/>
+      <c r="BK55" s="10"/>
+      <c r="BL55" s="10"/>
+      <c r="BM55" s="10"/>
+      <c r="BN55" s="10"/>
+      <c r="BO55" s="10"/>
+      <c r="BP55" s="10"/>
+      <c r="BQ55" s="10"/>
+      <c r="BR55" s="10"/>
+      <c r="BS55" s="10"/>
+      <c r="BT55" s="11"/>
     </row>
     <row r="56" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="77"/>
-      <c r="B56" s="78"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="9"/>
-      <c r="AH56" s="10"/>
-      <c r="AI56" s="10"/>
-      <c r="AJ56" s="10"/>
-      <c r="AK56" s="10"/>
-      <c r="AL56" s="10"/>
-      <c r="AM56" s="10"/>
-      <c r="AN56" s="10"/>
-      <c r="AO56" s="10"/>
-      <c r="AP56" s="10"/>
-      <c r="AQ56" s="10"/>
-      <c r="AR56" s="10"/>
-      <c r="AS56" s="10"/>
-      <c r="AT56" s="10"/>
-      <c r="AU56" s="10"/>
-      <c r="AV56" s="10"/>
-      <c r="AW56" s="10"/>
-      <c r="AX56" s="10"/>
-      <c r="AY56" s="10"/>
-      <c r="AZ56" s="10"/>
-      <c r="BA56" s="10"/>
-      <c r="BB56" s="10"/>
-      <c r="BC56" s="10"/>
-      <c r="BD56" s="10"/>
-      <c r="BE56" s="10"/>
-      <c r="BF56" s="9"/>
-      <c r="BG56" s="10"/>
-      <c r="BH56" s="10"/>
-      <c r="BI56" s="10"/>
-      <c r="BJ56" s="10"/>
-      <c r="BK56" s="10"/>
-      <c r="BL56" s="10"/>
-      <c r="BM56" s="10"/>
-      <c r="BN56" s="10"/>
-      <c r="BO56" s="10"/>
-      <c r="BP56" s="10"/>
-      <c r="BQ56" s="10"/>
-      <c r="BR56" s="10"/>
-      <c r="BS56" s="10"/>
-      <c r="BT56" s="11"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="7"/>
+      <c r="AV56" s="7"/>
+      <c r="AW56" s="7"/>
+      <c r="AX56" s="7"/>
+      <c r="AY56" s="7"/>
+      <c r="AZ56" s="7"/>
+      <c r="BA56" s="7"/>
+      <c r="BB56" s="7"/>
+      <c r="BC56" s="7"/>
+      <c r="BD56" s="7"/>
+      <c r="BE56" s="7"/>
+      <c r="BF56" s="7"/>
+      <c r="BG56" s="7"/>
+      <c r="BH56" s="7"/>
+      <c r="BI56" s="7"/>
+      <c r="BJ56" s="7"/>
+      <c r="BK56" s="7"/>
+      <c r="BL56" s="7"/>
+      <c r="BM56" s="7"/>
+      <c r="BN56" s="7"/>
+      <c r="BO56" s="7"/>
+      <c r="BP56" s="7"/>
+      <c r="BQ56" s="7"/>
+      <c r="BR56" s="7"/>
+      <c r="BS56" s="7"/>
+      <c r="BT56" s="7"/>
     </row>
     <row r="57" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="59"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
-      <c r="X57" s="7"/>
-      <c r="Y57" s="7"/>
-      <c r="Z57" s="7"/>
-      <c r="AA57" s="7"/>
-      <c r="AB57" s="7"/>
-      <c r="AC57" s="7"/>
-      <c r="AD57" s="7"/>
-      <c r="AE57" s="7"/>
-      <c r="AF57" s="7"/>
-      <c r="AG57" s="7"/>
-      <c r="AH57" s="7"/>
-      <c r="AI57" s="7"/>
-      <c r="AJ57" s="7"/>
-      <c r="AK57" s="7"/>
-      <c r="AL57" s="7"/>
-      <c r="AM57" s="7"/>
-      <c r="AN57" s="7"/>
-      <c r="AO57" s="7"/>
-      <c r="AP57" s="7"/>
-      <c r="AQ57" s="7"/>
-      <c r="AR57" s="7"/>
-      <c r="AS57" s="7"/>
-      <c r="AT57" s="7"/>
-      <c r="AU57" s="7"/>
-      <c r="AV57" s="7"/>
-      <c r="AW57" s="7"/>
-      <c r="AX57" s="7"/>
-      <c r="AY57" s="7"/>
-      <c r="AZ57" s="7"/>
-      <c r="BA57" s="7"/>
-      <c r="BB57" s="7"/>
-      <c r="BC57" s="7"/>
-      <c r="BD57" s="7"/>
-      <c r="BE57" s="7"/>
-      <c r="BF57" s="7"/>
-      <c r="BG57" s="7"/>
-      <c r="BH57" s="7"/>
-      <c r="BI57" s="7"/>
-      <c r="BJ57" s="7"/>
-      <c r="BK57" s="7"/>
-      <c r="BL57" s="7"/>
-      <c r="BM57" s="7"/>
-      <c r="BN57" s="7"/>
-      <c r="BO57" s="7"/>
-      <c r="BP57" s="7"/>
-      <c r="BQ57" s="7"/>
-      <c r="BR57" s="7"/>
-      <c r="BS57" s="7"/>
-      <c r="BT57" s="7"/>
+      <c r="B57" s="7"/>
     </row>
     <row r="58" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="7"/>
+      <c r="M58" s="59"/>
     </row>
     <row r="59" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="M59" s="59"/>
     </row>
-    <row r="60" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="M60" s="59"/>
+    <row r="61" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AF61" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="A54:B54"/>
+  <mergeCells count="58">
     <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C1:L2"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="C3:AF3"/>
-    <mergeCell ref="AG3:BE4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="BF3:BT4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AF4"/>
@@ -16300,6 +16146,48 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C1:L2"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="C3:AF3"/>
+    <mergeCell ref="AG3:BE4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16321,53 +16209,53 @@
       </c>
     </row>
     <row r="3" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="82" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="70"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="80"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="80"/>
+      <c r="AJ3" s="80"/>
+      <c r="AK3" s="80"/>
+      <c r="AL3" s="80"/>
+      <c r="AM3" s="80"/>
+      <c r="AN3" s="80"/>
+      <c r="AO3" s="80"/>
+      <c r="AP3" s="80"/>
+      <c r="AQ3" s="81"/>
     </row>
     <row r="4" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="53" t="s">
@@ -17464,117 +17352,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C103E2-A186-452E-9987-E4E7DA5AA31A}">
   <dimension ref="A1:BY54"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="68" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="64" t="s">
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="80"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="80"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="81"/>
+      <c r="AG3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="65"/>
-      <c r="BF3" s="64" t="s">
+      <c r="AH3" s="82"/>
+      <c r="AI3" s="82"/>
+      <c r="AJ3" s="82"/>
+      <c r="AK3" s="82"/>
+      <c r="AL3" s="82"/>
+      <c r="AM3" s="82"/>
+      <c r="AN3" s="82"/>
+      <c r="AO3" s="82"/>
+      <c r="AP3" s="82"/>
+      <c r="AQ3" s="82"/>
+      <c r="AR3" s="82"/>
+      <c r="AS3" s="82"/>
+      <c r="AT3" s="82"/>
+      <c r="AU3" s="82"/>
+      <c r="AV3" s="82"/>
+      <c r="AW3" s="82"/>
+      <c r="AX3" s="82"/>
+      <c r="AY3" s="82"/>
+      <c r="AZ3" s="82"/>
+      <c r="BA3" s="82"/>
+      <c r="BB3" s="82"/>
+      <c r="BC3" s="82"/>
+      <c r="BD3" s="82"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="65"/>
+      <c r="BG3" s="82"/>
+      <c r="BH3" s="82"/>
+      <c r="BI3" s="82"/>
+      <c r="BJ3" s="82"/>
+      <c r="BK3" s="82"/>
+      <c r="BL3" s="82"/>
+      <c r="BM3" s="82"/>
+      <c r="BN3" s="82"/>
+      <c r="BO3" s="82"/>
+      <c r="BP3" s="82"/>
+      <c r="BQ3" s="82"/>
+      <c r="BR3" s="82"/>
+      <c r="BS3" s="82"/>
+      <c r="BT3" s="76"/>
       <c r="BU3" s="1"/>
       <c r="BV3" s="1"/>
       <c r="BW3" s="1"/>
@@ -17582,82 +17472,82 @@
       <c r="BY3" s="1"/>
     </row>
     <row r="4" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69" t="s">
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="69"/>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="72"/>
-      <c r="AO4" s="72"/>
-      <c r="AP4" s="72"/>
-      <c r="AQ4" s="72"/>
-      <c r="AR4" s="72"/>
-      <c r="AS4" s="72"/>
-      <c r="AT4" s="72"/>
-      <c r="AU4" s="72"/>
-      <c r="AV4" s="72"/>
-      <c r="AW4" s="72"/>
-      <c r="AX4" s="72"/>
-      <c r="AY4" s="72"/>
-      <c r="AZ4" s="72"/>
-      <c r="BA4" s="72"/>
-      <c r="BB4" s="72"/>
-      <c r="BC4" s="72"/>
-      <c r="BD4" s="72"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="72"/>
-      <c r="BH4" s="72"/>
-      <c r="BI4" s="72"/>
-      <c r="BJ4" s="72"/>
-      <c r="BK4" s="72"/>
-      <c r="BL4" s="72"/>
-      <c r="BM4" s="72"/>
-      <c r="BN4" s="72"/>
-      <c r="BO4" s="72"/>
-      <c r="BP4" s="72"/>
-      <c r="BQ4" s="72"/>
-      <c r="BR4" s="72"/>
-      <c r="BS4" s="72"/>
-      <c r="BT4" s="67"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="80"/>
+      <c r="S4" s="80"/>
+      <c r="T4" s="80"/>
+      <c r="U4" s="80"/>
+      <c r="V4" s="80"/>
+      <c r="W4" s="80"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="80"/>
+      <c r="AE4" s="80"/>
+      <c r="AF4" s="81"/>
+      <c r="AG4" s="77"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="83"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="83"/>
+      <c r="AL4" s="83"/>
+      <c r="AM4" s="83"/>
+      <c r="AN4" s="83"/>
+      <c r="AO4" s="83"/>
+      <c r="AP4" s="83"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="83"/>
+      <c r="AS4" s="83"/>
+      <c r="AT4" s="83"/>
+      <c r="AU4" s="83"/>
+      <c r="AV4" s="83"/>
+      <c r="AW4" s="83"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="83"/>
+      <c r="AZ4" s="83"/>
+      <c r="BA4" s="83"/>
+      <c r="BB4" s="83"/>
+      <c r="BC4" s="83"/>
+      <c r="BD4" s="83"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="77"/>
+      <c r="BG4" s="83"/>
+      <c r="BH4" s="83"/>
+      <c r="BI4" s="83"/>
+      <c r="BJ4" s="83"/>
+      <c r="BK4" s="83"/>
+      <c r="BL4" s="83"/>
+      <c r="BM4" s="83"/>
+      <c r="BN4" s="83"/>
+      <c r="BO4" s="83"/>
+      <c r="BP4" s="83"/>
+      <c r="BQ4" s="83"/>
+      <c r="BR4" s="83"/>
+      <c r="BS4" s="83"/>
+      <c r="BT4" s="78"/>
       <c r="BU4" s="1"/>
       <c r="BV4" s="1"/>
       <c r="BW4" s="1"/>
@@ -17665,8 +17555,8 @@
       <c r="BY4" s="1"/>
     </row>
     <row r="5" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="75"/>
-      <c r="B5" s="76"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="12"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -17744,8 +17634,8 @@
       <c r="BY5" s="1"/>
     </row>
     <row r="6" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="75"/>
-      <c r="B6" s="76"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="13"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -17823,8 +17713,8 @@
       <c r="BY6" s="1"/>
     </row>
     <row r="7" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="75"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="13"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -17902,8 +17792,8 @@
       <c r="BY7" s="1"/>
     </row>
     <row r="8" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="81"/>
-      <c r="B8" s="76"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="13"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -17981,8 +17871,8 @@
       <c r="BY8" s="1"/>
     </row>
     <row r="9" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="81"/>
-      <c r="B9" s="76"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="13"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -18060,8 +17950,8 @@
       <c r="BY9" s="1"/>
     </row>
     <row r="10" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="13"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -18139,8 +18029,8 @@
       <c r="BY10" s="1"/>
     </row>
     <row r="11" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="13"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -18218,8 +18108,8 @@
       <c r="BY11" s="1"/>
     </row>
     <row r="12" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="13"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -18297,8 +18187,8 @@
       <c r="BY12" s="1"/>
     </row>
     <row r="13" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="67"/>
+      <c r="B13" s="68"/>
       <c r="C13" s="13"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -18376,8 +18266,8 @@
       <c r="BY13" s="1"/>
     </row>
     <row r="14" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="68"/>
       <c r="C14" s="13"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -18455,8 +18345,8 @@
       <c r="BY14" s="1"/>
     </row>
     <row r="15" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
       <c r="C15" s="13"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -18534,8 +18424,8 @@
       <c r="BY15" s="1"/>
     </row>
     <row r="16" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="13"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -18613,8 +18503,8 @@
       <c r="BY16" s="1"/>
     </row>
     <row r="17" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="13"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -18692,8 +18582,8 @@
       <c r="BY17" s="1"/>
     </row>
     <row r="18" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="68"/>
       <c r="C18" s="13"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -18771,8 +18661,8 @@
       <c r="BY18" s="1"/>
     </row>
     <row r="19" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="68"/>
       <c r="C19" s="13"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -18850,8 +18740,8 @@
       <c r="BY19" s="1"/>
     </row>
     <row r="20" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
       <c r="C20" s="13"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -18929,8 +18819,8 @@
       <c r="BY20" s="1"/>
     </row>
     <row r="21" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="75"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="68"/>
       <c r="C21" s="13"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -19008,8 +18898,8 @@
       <c r="BY21" s="1"/>
     </row>
     <row r="22" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="75"/>
-      <c r="B22" s="76"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="68"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -19086,8 +18976,8 @@
       <c r="BY22" s="1"/>
     </row>
     <row r="23" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="75"/>
-      <c r="B23" s="76"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="68"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -19164,8 +19054,8 @@
       <c r="BY23" s="1"/>
     </row>
     <row r="24" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
+      <c r="A24" s="67"/>
+      <c r="B24" s="68"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -19242,8 +19132,8 @@
       <c r="BY24" s="1"/>
     </row>
     <row r="25" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="75"/>
-      <c r="B25" s="76"/>
+      <c r="A25" s="67"/>
+      <c r="B25" s="68"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -19320,8 +19210,8 @@
       <c r="BY25" s="1"/>
     </row>
     <row r="26" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="75"/>
-      <c r="B26" s="76"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="68"/>
       <c r="C26" s="13"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -19399,8 +19289,8 @@
       <c r="BY26" s="1"/>
     </row>
     <row r="27" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="75"/>
-      <c r="B27" s="76"/>
+      <c r="A27" s="67"/>
+      <c r="B27" s="68"/>
       <c r="C27" s="13"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -19478,8 +19368,8 @@
       <c r="BY27" s="1"/>
     </row>
     <row r="28" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="75"/>
-      <c r="B28" s="76"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="68"/>
       <c r="C28" s="13"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -19557,8 +19447,8 @@
       <c r="BY28" s="1"/>
     </row>
     <row r="29" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="75"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="13"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -19636,8 +19526,8 @@
       <c r="BY29" s="1"/>
     </row>
     <row r="30" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="75"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
       <c r="C30" s="13"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -19715,8 +19605,8 @@
       <c r="BY30" s="1"/>
     </row>
     <row r="31" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="75"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="13"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -19794,8 +19684,8 @@
       <c r="BY31" s="1"/>
     </row>
     <row r="32" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="75"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="68"/>
       <c r="C32" s="13"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -19873,8 +19763,8 @@
       <c r="BY32" s="1"/>
     </row>
     <row r="33" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="75"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="68"/>
       <c r="C33" s="13"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -19952,8 +19842,8 @@
       <c r="BY33" s="1"/>
     </row>
     <row r="34" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="75"/>
-      <c r="B34" s="76"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="68"/>
       <c r="C34" s="13"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -20031,8 +19921,8 @@
       <c r="BY34" s="1"/>
     </row>
     <row r="35" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="75"/>
-      <c r="B35" s="76"/>
+      <c r="A35" s="67"/>
+      <c r="B35" s="68"/>
       <c r="C35" s="13"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -20110,8 +20000,8 @@
       <c r="BY35" s="1"/>
     </row>
     <row r="36" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="75"/>
-      <c r="B36" s="76"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="68"/>
       <c r="C36" s="13"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -20189,8 +20079,8 @@
       <c r="BY36" s="1"/>
     </row>
     <row r="37" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="75"/>
-      <c r="B37" s="76"/>
+      <c r="A37" s="67"/>
+      <c r="B37" s="68"/>
       <c r="C37" s="13"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -20268,8 +20158,8 @@
       <c r="BY37" s="1"/>
     </row>
     <row r="38" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="75"/>
-      <c r="B38" s="76"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="68"/>
       <c r="C38" s="13"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -20347,8 +20237,8 @@
       <c r="BY38" s="1"/>
     </row>
     <row r="39" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="75"/>
-      <c r="B39" s="76"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="68"/>
       <c r="C39" s="13"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -20426,8 +20316,8 @@
       <c r="BY39" s="1"/>
     </row>
     <row r="40" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="75"/>
-      <c r="B40" s="76"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="68"/>
       <c r="C40" s="13"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -20505,8 +20395,8 @@
       <c r="BY40" s="1"/>
     </row>
     <row r="41" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="68"/>
       <c r="C41" s="13"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -20584,8 +20474,8 @@
       <c r="BY41" s="1"/>
     </row>
     <row r="42" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
+      <c r="A42" s="67"/>
+      <c r="B42" s="68"/>
       <c r="C42" s="13"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -20663,8 +20553,8 @@
       <c r="BY42" s="1"/>
     </row>
     <row r="43" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="75"/>
-      <c r="B43" s="76"/>
+      <c r="A43" s="67"/>
+      <c r="B43" s="68"/>
       <c r="C43" s="13"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -20742,8 +20632,8 @@
       <c r="BY43" s="1"/>
     </row>
     <row r="44" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="75"/>
-      <c r="B44" s="76"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="68"/>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -20816,8 +20706,8 @@
       <c r="BT44" s="8"/>
     </row>
     <row r="45" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="75"/>
-      <c r="B45" s="76"/>
+      <c r="A45" s="67"/>
+      <c r="B45" s="68"/>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -20890,8 +20780,8 @@
       <c r="BT45" s="8"/>
     </row>
     <row r="46" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="75"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="68"/>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
@@ -20964,8 +20854,8 @@
       <c r="BT46" s="8"/>
     </row>
     <row r="47" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="75"/>
-      <c r="B47" s="76"/>
+      <c r="A47" s="67"/>
+      <c r="B47" s="68"/>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
@@ -21038,8 +20928,8 @@
       <c r="BT47" s="8"/>
     </row>
     <row r="48" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="75"/>
-      <c r="B48" s="76"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="68"/>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
@@ -21112,8 +21002,8 @@
       <c r="BT48" s="8"/>
     </row>
     <row r="49" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="75"/>
-      <c r="B49" s="76"/>
+      <c r="A49" s="67"/>
+      <c r="B49" s="68"/>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
@@ -21186,8 +21076,8 @@
       <c r="BT49" s="8"/>
     </row>
     <row r="50" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="75"/>
-      <c r="B50" s="76"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
@@ -21260,8 +21150,8 @@
       <c r="BT50" s="8"/>
     </row>
     <row r="51" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="75"/>
-      <c r="B51" s="76"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
@@ -21334,8 +21224,8 @@
       <c r="BT51" s="8"/>
     </row>
     <row r="52" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="75"/>
-      <c r="B52" s="76"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="68"/>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
@@ -21408,8 +21298,8 @@
       <c r="BT52" s="8"/>
     </row>
     <row r="53" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="75"/>
-      <c r="B53" s="76"/>
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
@@ -21482,8 +21372,8 @@
       <c r="BT53" s="8"/>
     </row>
     <row r="54" spans="1:72" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="77"/>
-      <c r="B54" s="78"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="66"/>
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
@@ -21557,50 +21447,6 @@
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
     <mergeCell ref="BF3:BT4"/>
     <mergeCell ref="C4:L4"/>
     <mergeCell ref="M4:AF4"/>
@@ -21614,6 +21460,50 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
